--- a/aoc.2017/YOC2017.xlsx
+++ b/aoc.2017/YOC2017.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="18195" windowHeight="8505"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="18195" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="p3" sheetId="1" r:id="rId1"/>
     <sheet name="p3 calc" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="p3 mock" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="12">
   <si>
     <t>My input:</t>
   </si>
@@ -35,12 +35,30 @@
   <si>
     <t>FORM</t>
   </si>
+  <si>
+    <t>3a</t>
+  </si>
+  <si>
+    <t>3b</t>
+  </si>
+  <si>
+    <t>v*</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>1 only</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,8 +79,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -81,8 +107,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -170,11 +202,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -210,6 +257,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -513,28 +572,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:U20"/>
+  <dimension ref="B2:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="2.7109375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="2.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.7109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1">
         <v>361527</v>
       </c>
-    </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="J4" s="2">
         <v>65</v>
       </c>
@@ -563,7 +627,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
@@ -604,7 +668,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
@@ -645,7 +709,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
@@ -677,7 +741,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="12">
         <v>0</v>
       </c>
@@ -719,7 +783,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" s="11">
         <v>1</v>
       </c>
@@ -764,8 +828,11 @@
       <c r="R9" s="6">
         <v>52</v>
       </c>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="T9" s="15">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" s="11">
         <v>2</v>
       </c>
@@ -810,8 +877,11 @@
       <c r="R10" s="6">
         <v>51</v>
       </c>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="T10" s="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" s="11">
         <v>3</v>
       </c>
@@ -859,8 +929,11 @@
       <c r="S11" s="1">
         <v>83</v>
       </c>
-    </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="T11" s="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="11">
         <v>4</v>
       </c>
@@ -908,8 +981,11 @@
       <c r="S12" s="1">
         <v>82</v>
       </c>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="T12" s="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="11">
         <v>5</v>
       </c>
@@ -924,9 +1000,15 @@
         <f t="shared" si="0"/>
         <v>121</v>
       </c>
-      <c r="S13" s="11"/>
-    </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="S13" s="11">
+        <f>11^2</f>
+        <v>121</v>
+      </c>
+      <c r="T13" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="11">
         <v>6</v>
       </c>
@@ -938,9 +1020,12 @@
         <f t="shared" si="0"/>
         <v>169</v>
       </c>
-      <c r="T14" s="11"/>
-    </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="T14" s="11">
+        <f>13^2</f>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" s="11">
         <v>7</v>
       </c>
@@ -952,9 +1037,11 @@
         <f t="shared" si="0"/>
         <v>225</v>
       </c>
-      <c r="U15" s="11"/>
-    </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="H15" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
         <v>8</v>
       </c>
@@ -966,8 +1053,35 @@
         <f t="shared" si="0"/>
         <v>289</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="J16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="N16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="O16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="P16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="S16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="T16" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
         <v>9</v>
       </c>
@@ -979,8 +1093,35 @@
         <f t="shared" si="0"/>
         <v>361</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="J17" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="13">
+        <v>5</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N17" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="O17" s="13">
+        <v>4</v>
+      </c>
+      <c r="P17" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="R17" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="S17" s="13">
+        <v>3</v>
+      </c>
+      <c r="T17" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="11">
         <v>10</v>
       </c>
@@ -992,8 +1133,35 @@
         <f t="shared" si="0"/>
         <v>441</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="J18" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N18" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="O18" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="P18" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="R18" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="S18" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="T18" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" s="11">
         <v>11</v>
       </c>
@@ -1006,7 +1174,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
         <v>12</v>
       </c>
@@ -1017,6 +1185,178 @@
       <c r="F20" s="1">
         <f t="shared" si="0"/>
         <v>625</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N20" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="O20" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="P20" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R20" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="S20" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="T20" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="J21" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="13">
+        <v>6</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N21" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="O21" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="P21" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R21" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="S21" s="13">
+        <v>2</v>
+      </c>
+      <c r="T21" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="J22" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="O22" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="P22" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R22" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="S22" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="T22" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="J24" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N24" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="O24" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="P24" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="R24" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="S24" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="T24" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="J25" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K25" s="13">
+        <v>7</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="N25" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="O25" s="13">
+        <v>8</v>
+      </c>
+      <c r="P25" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R25" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="S25" s="9">
+        <v>9</v>
+      </c>
+      <c r="T25" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="J26" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="N26" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="O26" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="P26" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R26" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="S26" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="T26" s="13" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1942,12 +2282,812 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B5:P24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F5" s="1">
+        <v>147</v>
+      </c>
+      <c r="G5" s="1">
+        <v>142</v>
+      </c>
+      <c r="H5" s="1">
+        <v>133</v>
+      </c>
+      <c r="I5" s="1">
+        <v>122</v>
+      </c>
+      <c r="J5" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F6" s="1">
+        <v>304</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1">
+        <v>4</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F7" s="1">
+        <v>330</v>
+      </c>
+      <c r="G7" s="1">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F8" s="1">
+        <v>351</v>
+      </c>
+      <c r="G8" s="1">
+        <v>11</v>
+      </c>
+      <c r="H8" s="1">
+        <v>23</v>
+      </c>
+      <c r="I8" s="1">
+        <v>25</v>
+      </c>
+      <c r="J8" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F9" s="1">
+        <v>362</v>
+      </c>
+      <c r="G9" s="1">
+        <v>747</v>
+      </c>
+      <c r="H9" s="1">
+        <v>806</v>
+      </c>
+      <c r="I9" s="1">
+        <f>806+23+25+26</f>
+        <v>880</v>
+      </c>
+      <c r="J9" s="1">
+        <f>880+25+26</f>
+        <v>931</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="11">
+        <f>C12+C13</f>
+        <v>1807997783</v>
+      </c>
+      <c r="C12" s="1">
+        <f>C13+D12+D13</f>
+        <v>1783922604</v>
+      </c>
+      <c r="D12" s="1">
+        <f>C13+D13+E12+E13</f>
+        <v>1736138951</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" ref="E12:G12" si="0">D13+E13+F12+F13</f>
+        <v>1665373643</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>1596775757</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>1531013670</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" ref="H12:H15" si="1">G13+H13+I12+I13</f>
+        <v>1468345088</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" ref="I12:L15" si="2">H13+I13+J12+J13</f>
+        <v>1408625892</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="2"/>
+        <v>1351699132</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="2"/>
+        <v>1297412292</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="2"/>
+        <v>1245504475</v>
+      </c>
+      <c r="M12" s="1">
+        <f>L13+M13+N12+N13</f>
+        <v>1203518940</v>
+      </c>
+      <c r="N12" s="11">
+        <f>M13+N13</f>
+        <v>593469796</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <f>B12+C12+C13+C14</f>
+        <v>3664892820</v>
+      </c>
+      <c r="C13" s="11">
+        <f>D13+D14</f>
+        <v>24075179</v>
+      </c>
+      <c r="D13" s="1">
+        <f>D14+E13+E14</f>
+        <v>23708474</v>
+      </c>
+      <c r="E13" s="1">
+        <f>D14+E14+F13+F14</f>
+        <v>22981655</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" ref="F13:G13" si="3">E14+F14+G13+G14</f>
+        <v>21907757</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="3"/>
+        <v>20872675</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="1"/>
+        <v>19888150</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="2"/>
+        <v>18958371</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="2"/>
+        <v>18080239</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="2"/>
+        <v>17248230</v>
+      </c>
+      <c r="L13" s="1">
+        <f>K14+L14+M13+M14</f>
+        <v>16579348</v>
+      </c>
+      <c r="M13" s="11">
+        <f>L14+M14</f>
+        <v>8157957</v>
+      </c>
+      <c r="N13" s="1">
+        <f>M13+M14+N14</f>
+        <v>585311839</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <f t="shared" ref="B14:E17" si="4">B13+C13+C14+C15</f>
+        <v>3788657348</v>
+      </c>
+      <c r="C14" s="1">
+        <f>C13+D13+D14+D15</f>
+        <v>48897254</v>
+      </c>
+      <c r="D14" s="11">
+        <f>E14+E15</f>
+        <v>366705</v>
+      </c>
+      <c r="E14" s="1">
+        <f>E15+F14+F15</f>
+        <v>360114</v>
+      </c>
+      <c r="F14" s="1">
+        <f>E15+F15+G14+G15</f>
+        <v>347079</v>
+      </c>
+      <c r="G14" s="1">
+        <f>F15+G15+H14+H15</f>
+        <v>327889</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="1"/>
+        <v>309557</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="2"/>
+        <v>292333</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="2"/>
+        <v>276242</v>
+      </c>
+      <c r="K14" s="1">
+        <f>J15+K15+L14+L15</f>
+        <v>263434</v>
+      </c>
+      <c r="L14" s="11">
+        <f>K15+L15</f>
+        <v>129206</v>
+      </c>
+      <c r="M14" s="1">
+        <f>L14+L15+M15</f>
+        <v>8028751</v>
+      </c>
+      <c r="N14" s="1">
+        <f>M13+M14+M15+N15</f>
+        <v>569125131</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <f t="shared" si="4"/>
+        <v>3941491173</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="4"/>
+        <v>50792095</v>
+      </c>
+      <c r="D15" s="1">
+        <f>D14+E14+E15+E16</f>
+        <v>746896</v>
+      </c>
+      <c r="E15" s="11">
+        <f>F15+F16</f>
+        <v>6591</v>
+      </c>
+      <c r="F15" s="1">
+        <f>F16+G15+G16</f>
+        <v>6444</v>
+      </c>
+      <c r="G15" s="1">
+        <f>F16+G16+H15+H16</f>
+        <v>6155</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="1"/>
+        <v>5733</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="2"/>
+        <v>5336</v>
+      </c>
+      <c r="J15" s="1">
+        <f>I16+J16+K15+K16</f>
+        <v>5022</v>
+      </c>
+      <c r="K15" s="11">
+        <f>J16+K16</f>
+        <v>2450</v>
+      </c>
+      <c r="L15" s="1">
+        <f>K15+K16+L16</f>
+        <v>126756</v>
+      </c>
+      <c r="M15" s="1">
+        <f>L14+L15+L16+M16</f>
+        <v>7772789</v>
+      </c>
+      <c r="N15" s="1">
+        <f>M14+M15+M16+N16</f>
+        <v>545165634</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <f t="shared" si="4"/>
+        <v>4101047402</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="4"/>
+        <v>53144476</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="4"/>
+        <v>781240</v>
+      </c>
+      <c r="E16" s="1">
+        <f>E15+F15+F16+F17</f>
+        <v>13486</v>
+      </c>
+      <c r="F16" s="11">
+        <f>G16+G17</f>
+        <v>147</v>
+      </c>
+      <c r="G16" s="1">
+        <f>G17+H16+H17</f>
+        <v>142</v>
+      </c>
+      <c r="H16" s="1">
+        <f>G17+H17+I16+I17</f>
+        <v>133</v>
+      </c>
+      <c r="I16" s="1">
+        <f>H17+I17+J16+J17</f>
+        <v>122</v>
+      </c>
+      <c r="J16" s="11">
+        <f>I17+J17</f>
+        <v>59</v>
+      </c>
+      <c r="K16" s="1">
+        <f>J16+J17+K17</f>
+        <v>2391</v>
+      </c>
+      <c r="L16" s="1">
+        <f>K15+K16+K17+L17</f>
+        <v>121915</v>
+      </c>
+      <c r="M16" s="1">
+        <f>L15+L16+L17+M17</f>
+        <v>7394912</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" ref="L16:N18" si="5">M15+M16+M17+N17</f>
+        <v>521969182</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <f t="shared" si="4"/>
+        <v>4268026018</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="4"/>
+        <v>55619658</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="4"/>
+        <v>824245</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="4"/>
+        <v>14267</v>
+      </c>
+      <c r="F17" s="1">
+        <f>F16+G16+G17+G18</f>
+        <v>304</v>
+      </c>
+      <c r="G17" s="11">
+        <f>H17+H18</f>
+        <v>5</v>
+      </c>
+      <c r="H17" s="1">
+        <f>H18+I18+I17</f>
+        <v>4</v>
+      </c>
+      <c r="I17" s="11">
+        <f>H18+I18</f>
+        <v>2</v>
+      </c>
+      <c r="J17" s="1">
+        <f>I17+I18+J18</f>
+        <v>57</v>
+      </c>
+      <c r="K17" s="1">
+        <f>J16+J17+J18+K18</f>
+        <v>2275</v>
+      </c>
+      <c r="L17" s="1">
+        <f>K16+K17+K18+L18</f>
+        <v>114799</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" si="5"/>
+        <v>7031442</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" si="5"/>
+        <v>499770039</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <f t="shared" ref="B18:E18" si="6">B17+C17+C18+C19</f>
+        <v>4441845219</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="6"/>
+        <v>58214482</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="6"/>
+        <v>869697</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="6"/>
+        <v>15252</v>
+      </c>
+      <c r="F18" s="1">
+        <f>F17+G17+G18+G19</f>
+        <v>330</v>
+      </c>
+      <c r="G18" s="1">
+        <f>G17+H17+H18</f>
+        <v>10</v>
+      </c>
+      <c r="H18" s="14">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
+        <f>H18</f>
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <f>I17+I18+I19+J19</f>
+        <v>54</v>
+      </c>
+      <c r="K18" s="1">
+        <f>J17+J18+J19+K19</f>
+        <v>2105</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="5"/>
+        <v>108028</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" si="5"/>
+        <v>6686700</v>
+      </c>
+      <c r="N18" s="1">
+        <f>M17+M18+M19+N19</f>
+        <v>478656985</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <f t="shared" ref="B19:E22" si="7">B18+C18+C19</f>
+        <v>4560044762</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="7"/>
+        <v>59985061</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="7"/>
+        <v>900882</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="7"/>
+        <v>15933</v>
+      </c>
+      <c r="F19" s="1">
+        <f>F18+G18+G19</f>
+        <v>351</v>
+      </c>
+      <c r="G19" s="11">
+        <f>G18+H18</f>
+        <v>11</v>
+      </c>
+      <c r="H19" s="1">
+        <f>I18+H18+G18+G19</f>
+        <v>23</v>
+      </c>
+      <c r="I19" s="11">
+        <f>I18+H18+H19</f>
+        <v>25</v>
+      </c>
+      <c r="J19" s="1">
+        <f>I18+I19</f>
+        <v>26</v>
+      </c>
+      <c r="K19" s="1">
+        <f>J18+J19+J20+K20</f>
+        <v>1968</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" ref="L19:N20" si="8">K18+K19+K20+L20</f>
+        <v>101680</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" si="8"/>
+        <v>6362193</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="8"/>
+        <v>458576650</v>
+      </c>
+      <c r="P19" s="16"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <f t="shared" si="7"/>
+        <v>4681849227</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="7"/>
+        <v>61819404</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="7"/>
+        <v>933461</v>
+      </c>
+      <c r="E20" s="1">
+        <f>E19+F19+F20</f>
+        <v>16646</v>
+      </c>
+      <c r="F20" s="11">
+        <f>F19+G19</f>
+        <v>362</v>
+      </c>
+      <c r="G20" s="1">
+        <f>F19+F20+G19+H19</f>
+        <v>747</v>
+      </c>
+      <c r="H20" s="1">
+        <f>G19+G20+H19+I19</f>
+        <v>806</v>
+      </c>
+      <c r="I20" s="1">
+        <f>H19+H20+I19+J19</f>
+        <v>880</v>
+      </c>
+      <c r="J20" s="11">
+        <f>I19+I20+J19</f>
+        <v>931</v>
+      </c>
+      <c r="K20" s="1">
+        <f>J19+J20</f>
+        <v>957</v>
+      </c>
+      <c r="L20" s="1">
+        <f>K19+K20+K21+L21</f>
+        <v>96650</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" si="8"/>
+        <v>6055835</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="8"/>
+        <v>439471922</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <f t="shared" si="7"/>
+        <v>4807388611</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="7"/>
+        <v>63719980</v>
+      </c>
+      <c r="D21" s="1">
+        <f>D20+E20+E21</f>
+        <v>967115</v>
+      </c>
+      <c r="E21" s="11">
+        <f>E20+F20</f>
+        <v>17008</v>
+      </c>
+      <c r="F21" s="1">
+        <f>E20+E21+F20+G20</f>
+        <v>34763</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" ref="D21:G24" si="9">F20+F21+G20+H20</f>
+        <v>36678</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" ref="H21:H24" si="10">G20+G21+H20+I20</f>
+        <v>39111</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" ref="I21:L24" si="11">H20+H21+I20+J20</f>
+        <v>41728</v>
+      </c>
+      <c r="J21" s="1">
+        <f>I20+I21+J20+K20</f>
+        <v>44496</v>
+      </c>
+      <c r="K21" s="11">
+        <f>J20+J21+K20</f>
+        <v>46384</v>
+      </c>
+      <c r="L21" s="1">
+        <f>K20+K21</f>
+        <v>47341</v>
+      </c>
+      <c r="M21" s="1">
+        <f>L20+L21+L22+M22</f>
+        <v>5810164</v>
+      </c>
+      <c r="N21" s="1">
+        <f>M20+M21+M22+N22</f>
+        <v>421243730</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <f t="shared" si="7"/>
+        <v>4936779809</v>
+      </c>
+      <c r="C22" s="1">
+        <f>C21+D21+D22</f>
+        <v>65671218</v>
+      </c>
+      <c r="D22" s="11">
+        <f>D21+E21</f>
+        <v>984123</v>
+      </c>
+      <c r="E22" s="1">
+        <f>D21+D22+E21+F21</f>
+        <v>2003009</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="9"/>
+        <v>2091458</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="9"/>
+        <v>2202010</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="10"/>
+        <v>2319527</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="11"/>
+        <v>2444862</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="11"/>
+        <v>2577470</v>
+      </c>
+      <c r="K22" s="1">
+        <f>J21+J22+K21+L21</f>
+        <v>2715691</v>
+      </c>
+      <c r="L22" s="11">
+        <f>K21+K22+L21</f>
+        <v>2809416</v>
+      </c>
+      <c r="M22" s="1">
+        <f>L21+L22</f>
+        <v>2856757</v>
+      </c>
+      <c r="N22" s="1">
+        <f>M21+M22+M23+N23</f>
+        <v>406520974</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <f>B22+C22+C23</f>
+        <v>5069106368</v>
+      </c>
+      <c r="C23" s="11">
+        <f>C22+D22</f>
+        <v>66655341</v>
+      </c>
+      <c r="D23" s="1">
+        <f>C22+C23+D22+E22</f>
+        <v>135313691</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="9"/>
+        <v>140392281</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="9"/>
+        <v>146688758</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="9"/>
+        <v>153301753</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="10"/>
+        <v>160268152</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="11"/>
+        <v>167610011</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="11"/>
+        <v>175348034</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="11"/>
+        <v>183450611</v>
+      </c>
+      <c r="L23" s="1">
+        <f>K22+K23+L22+M22</f>
+        <v>191832475</v>
+      </c>
+      <c r="M23" s="11">
+        <f>L22+L23+M22</f>
+        <v>197498648</v>
+      </c>
+      <c r="N23" s="1">
+        <f>M22+M23</f>
+        <v>200355405</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" s="11">
+        <f>B23+C23</f>
+        <v>5135761709</v>
+      </c>
+      <c r="C24" s="1">
+        <f>B23+B24+C23+D23</f>
+        <v>10406837109</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="9"/>
+        <v>10749198422</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="9"/>
+        <v>11171593152</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="9"/>
+        <v>11611975944</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="9"/>
+        <v>12072234607</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="10"/>
+        <v>12553414523</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="11"/>
+        <v>13056640720</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="11"/>
+        <v>13583049376</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" si="11"/>
+        <v>14133680496</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" si="11"/>
+        <v>14706462230</v>
+      </c>
+      <c r="M24" s="1">
+        <f>L23+L24+M23+N23</f>
+        <v>15296148758</v>
+      </c>
+      <c r="N24" s="11">
+        <f>M23+M24+N23</f>
+        <v>15694002811</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>